--- a/contratos/contratos-11-2013.xlsx
+++ b/contratos/contratos-11-2013.xlsx
@@ -718,7 +718,7 @@
     <t>ROUGIER VICTOR JORGE</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>ROUSSEAUX MARTIN ANDRES</t>
@@ -733,7 +733,7 @@
     <t>GRUAS SAN BLAS S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LAMBERT CARLOS MIGUEL</t>
@@ -838,7 +838,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>NALDO LOMBARDI  S.A.</t>
@@ -907,7 +907,7 @@
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BERGER S. A.</t>
@@ -997,13 +997,13 @@
     <t>DEVOL S.A.</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
-  </si>
-  <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>DODERA. JORGE ABELARDO</t>
+  </si>
+  <si>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1270,7 +1270,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>PINTURERIA URUGUAY / ARCO IRIS</t>
@@ -1441,709 +1441,709 @@
     <t>155</t>
   </si>
   <si>
-    <t>5.647,50</t>
-  </si>
-  <si>
-    <t>3.410,00</t>
-  </si>
-  <si>
-    <t>41.580,00</t>
-  </si>
-  <si>
-    <t>86.790,00</t>
-  </si>
-  <si>
-    <t>1.040.300,00</t>
-  </si>
-  <si>
-    <t>1.633,50</t>
-  </si>
-  <si>
-    <t>994,74</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>356,00</t>
-  </si>
-  <si>
-    <t>1.527,85</t>
-  </si>
-  <si>
-    <t>3.109,00</t>
-  </si>
-  <si>
-    <t>371,57</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>103.780,70</t>
-  </si>
-  <si>
-    <t>11.883,00</t>
-  </si>
-  <si>
-    <t>39.260,02</t>
-  </si>
-  <si>
-    <t>5.967,50</t>
-  </si>
-  <si>
-    <t>1.017,04</t>
-  </si>
-  <si>
-    <t>78,57</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>10.108,15</t>
-  </si>
-  <si>
-    <t>2.060,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.123,25</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>38.656,71</t>
-  </si>
-  <si>
-    <t>42,08</t>
-  </si>
-  <si>
-    <t>32.208,20</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>97,80</t>
-  </si>
-  <si>
-    <t>25.390,71</t>
-  </si>
-  <si>
-    <t>543,78</t>
-  </si>
-  <si>
-    <t>498,52</t>
-  </si>
-  <si>
-    <t>41.081,20</t>
-  </si>
-  <si>
-    <t>44,00</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>6.073,00</t>
-  </si>
-  <si>
-    <t>424,88</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>4.491,22</t>
-  </si>
-  <si>
-    <t>354,08</t>
-  </si>
-  <si>
-    <t>29.723,36</t>
-  </si>
-  <si>
-    <t>2.479,96</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>201,90</t>
-  </si>
-  <si>
-    <t>2.081,62</t>
-  </si>
-  <si>
-    <t>2.916,00</t>
-  </si>
-  <si>
-    <t>849,76</t>
-  </si>
-  <si>
-    <t>103,60</t>
-  </si>
-  <si>
-    <t>120,14</t>
-  </si>
-  <si>
-    <t>735,12</t>
-  </si>
-  <si>
-    <t>114,51</t>
-  </si>
-  <si>
-    <t>5.456,61</t>
-  </si>
-  <si>
-    <t>587,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>374,00</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>8.287,30</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>18.350,00</t>
-  </si>
-  <si>
-    <t>2.796,68</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>2.722,00</t>
-  </si>
-  <si>
-    <t>83,77</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.178,57</t>
-  </si>
-  <si>
-    <t>419,87</t>
-  </si>
-  <si>
-    <t>46.320,00</t>
-  </si>
-  <si>
-    <t>2.180,00</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>2.240,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>575,12</t>
-  </si>
-  <si>
-    <t>242,00</t>
-  </si>
-  <si>
-    <t>26.520,00</t>
-  </si>
-  <si>
-    <t>18.012,00</t>
-  </si>
-  <si>
-    <t>31.272,00</t>
-  </si>
-  <si>
-    <t>11.030,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>2.048,00</t>
-  </si>
-  <si>
-    <t>3.618,60</t>
-  </si>
-  <si>
-    <t>3.669,00</t>
-  </si>
-  <si>
-    <t>31.304,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>21.076,00</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>11,20</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>300.918,12</t>
-  </si>
-  <si>
-    <t>5.097,87</t>
-  </si>
-  <si>
-    <t>270.000,00</t>
-  </si>
-  <si>
-    <t>8.460,74</t>
-  </si>
-  <si>
-    <t>2.906,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>3,79</t>
-  </si>
-  <si>
-    <t>1.046,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>17,00</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>6.600,95</t>
-  </si>
-  <si>
-    <t>1.820,10</t>
-  </si>
-  <si>
-    <t>4.310,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>7.380,00</t>
-  </si>
-  <si>
-    <t>13.460,96</t>
-  </si>
-  <si>
-    <t>23.016,12</t>
-  </si>
-  <si>
-    <t>42.334,00</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>468,00</t>
-  </si>
-  <si>
-    <t>31.244,70</t>
-  </si>
-  <si>
-    <t>3.142,50</t>
-  </si>
-  <si>
-    <t>4.907,00</t>
-  </si>
-  <si>
-    <t>25.794,88</t>
-  </si>
-  <si>
-    <t>1.327,95</t>
-  </si>
-  <si>
-    <t>1.076,15</t>
-  </si>
-  <si>
-    <t>2.350,25</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>33,00</t>
-  </si>
-  <si>
-    <t>6.316,00</t>
-  </si>
-  <si>
-    <t>1.422,00</t>
-  </si>
-  <si>
-    <t>67,00</t>
-  </si>
-  <si>
-    <t>73,92</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>470,70</t>
-  </si>
-  <si>
-    <t>5.418,77</t>
-  </si>
-  <si>
-    <t>3.055,00</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>85,44</t>
-  </si>
-  <si>
-    <t>2.232,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.945,00</t>
-  </si>
-  <si>
-    <t>1.685,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>184.300,00</t>
-  </si>
-  <si>
-    <t>848,69</t>
-  </si>
-  <si>
-    <t>943,00</t>
-  </si>
-  <si>
-    <t>107,03</t>
-  </si>
-  <si>
-    <t>265,50</t>
-  </si>
-  <si>
-    <t>156,00</t>
-  </si>
-  <si>
-    <t>2.490,46</t>
-  </si>
-  <si>
-    <t>264.408,40</t>
-  </si>
-  <si>
-    <t>134.400,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.994,40</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>10.588,50</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>12.300,00</t>
-  </si>
-  <si>
-    <t>2.272,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>1.349,02</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>404,71</t>
-  </si>
-  <si>
-    <t>2.415,00</t>
-  </si>
-  <si>
-    <t>1.359,20</t>
-  </si>
-  <si>
-    <t>287,78</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>1.408,00</t>
-  </si>
-  <si>
-    <t>8.607,00</t>
-  </si>
-  <si>
-    <t>1.090,00</t>
-  </si>
-  <si>
-    <t>233,60</t>
-  </si>
-  <si>
-    <t>1.612,50</t>
-  </si>
-  <si>
-    <t>1.900,96</t>
-  </si>
-  <si>
-    <t>6.079,11</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>6.478,32</t>
-  </si>
-  <si>
-    <t>652,00</t>
-  </si>
-  <si>
-    <t>1.735,80</t>
-  </si>
-  <si>
-    <t>2.260,00</t>
-  </si>
-  <si>
-    <t>1.476,64</t>
-  </si>
-  <si>
-    <t>29,00</t>
-  </si>
-  <si>
-    <t>1.069,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>4.270,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>98,55</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>807,40</t>
-  </si>
-  <si>
-    <t>2.140,00</t>
-  </si>
-  <si>
-    <t>158,00</t>
-  </si>
-  <si>
-    <t>447,00</t>
-  </si>
-  <si>
-    <t>615,00</t>
-  </si>
-  <si>
-    <t>325,50</t>
-  </si>
-  <si>
-    <t>646,00</t>
-  </si>
-  <si>
-    <t>29.760,52</t>
-  </si>
-  <si>
-    <t>8.217,00</t>
-  </si>
-  <si>
-    <t>5.784,20</t>
-  </si>
-  <si>
-    <t>740,00</t>
-  </si>
-  <si>
-    <t>790,30</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>987,00</t>
-  </si>
-  <si>
-    <t>2.575,69</t>
-  </si>
-  <si>
-    <t>2.733,41</t>
-  </si>
-  <si>
-    <t>9.082,74</t>
-  </si>
-  <si>
-    <t>17.920,00</t>
-  </si>
-  <si>
-    <t>4.565,00</t>
-  </si>
-  <si>
-    <t>1.373.824,51</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>1.010,00</t>
-  </si>
-  <si>
-    <t>1.815,80</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>237.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>2.632.557,15</t>
-  </si>
-  <si>
-    <t>25.885,00</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>1.213.333,47</t>
-  </si>
-  <si>
-    <t>505.587,46</t>
-  </si>
-  <si>
-    <t>23.625,76</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>77.700,00</t>
-  </si>
-  <si>
-    <t>16.470,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
+    <t>5647.50</t>
+  </si>
+  <si>
+    <t>3410.00</t>
+  </si>
+  <si>
+    <t>41580.00</t>
+  </si>
+  <si>
+    <t>86790.00</t>
+  </si>
+  <si>
+    <t>1040300.00</t>
+  </si>
+  <si>
+    <t>1633.50</t>
+  </si>
+  <si>
+    <t>994.74</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>1527.85</t>
+  </si>
+  <si>
+    <t>3109.00</t>
+  </si>
+  <si>
+    <t>371.57</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>103780.70</t>
+  </si>
+  <si>
+    <t>11883.00</t>
+  </si>
+  <si>
+    <t>39260.02</t>
+  </si>
+  <si>
+    <t>5967.50</t>
+  </si>
+  <si>
+    <t>1017.04</t>
+  </si>
+  <si>
+    <t>78.57</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>10108.15</t>
+  </si>
+  <si>
+    <t>2060.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1123.25</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>38656.71</t>
+  </si>
+  <si>
+    <t>42.08</t>
+  </si>
+  <si>
+    <t>32208.20</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>97.80</t>
+  </si>
+  <si>
+    <t>25390.71</t>
+  </si>
+  <si>
+    <t>543.78</t>
+  </si>
+  <si>
+    <t>498.52</t>
+  </si>
+  <si>
+    <t>41081.20</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>6073.00</t>
+  </si>
+  <si>
+    <t>424.88</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>4491.22</t>
+  </si>
+  <si>
+    <t>354.08</t>
+  </si>
+  <si>
+    <t>29723.36</t>
+  </si>
+  <si>
+    <t>2479.96</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>201.90</t>
+  </si>
+  <si>
+    <t>2081.62</t>
+  </si>
+  <si>
+    <t>2916.00</t>
+  </si>
+  <si>
+    <t>849.76</t>
+  </si>
+  <si>
+    <t>103.60</t>
+  </si>
+  <si>
+    <t>120.14</t>
+  </si>
+  <si>
+    <t>735.12</t>
+  </si>
+  <si>
+    <t>114.51</t>
+  </si>
+  <si>
+    <t>5456.61</t>
+  </si>
+  <si>
+    <t>587.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>374.00</t>
+  </si>
+  <si>
+    <t>675.00</t>
+  </si>
+  <si>
+    <t>8287.30</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>18350.00</t>
+  </si>
+  <si>
+    <t>2796.68</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>2722.00</t>
+  </si>
+  <si>
+    <t>83.77</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2178.57</t>
+  </si>
+  <si>
+    <t>419.87</t>
+  </si>
+  <si>
+    <t>46320.00</t>
+  </si>
+  <si>
+    <t>2180.00</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>2240.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>575.12</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>26520.00</t>
+  </si>
+  <si>
+    <t>18012.00</t>
+  </si>
+  <si>
+    <t>31272.00</t>
+  </si>
+  <si>
+    <t>11030.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>2048.00</t>
+  </si>
+  <si>
+    <t>3618.60</t>
+  </si>
+  <si>
+    <t>3669.00</t>
+  </si>
+  <si>
+    <t>31304.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>21076.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>300918.12</t>
+  </si>
+  <si>
+    <t>5097.87</t>
+  </si>
+  <si>
+    <t>270000.00</t>
+  </si>
+  <si>
+    <t>8460.74</t>
+  </si>
+  <si>
+    <t>2906.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>1046.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>6600.95</t>
+  </si>
+  <si>
+    <t>1820.10</t>
+  </si>
+  <si>
+    <t>4310.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>7380.00</t>
+  </si>
+  <si>
+    <t>13460.96</t>
+  </si>
+  <si>
+    <t>23016.12</t>
+  </si>
+  <si>
+    <t>42334.00</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>468.00</t>
+  </si>
+  <si>
+    <t>31244.70</t>
+  </si>
+  <si>
+    <t>3142.50</t>
+  </si>
+  <si>
+    <t>4907.00</t>
+  </si>
+  <si>
+    <t>25794.88</t>
+  </si>
+  <si>
+    <t>1327.95</t>
+  </si>
+  <si>
+    <t>1076.15</t>
+  </si>
+  <si>
+    <t>2350.25</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>6316.00</t>
+  </si>
+  <si>
+    <t>1422.00</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>73.92</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>470.70</t>
+  </si>
+  <si>
+    <t>5418.77</t>
+  </si>
+  <si>
+    <t>3055.00</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>85.44</t>
+  </si>
+  <si>
+    <t>2232.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1945.00</t>
+  </si>
+  <si>
+    <t>1685.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>184300.00</t>
+  </si>
+  <si>
+    <t>848.69</t>
+  </si>
+  <si>
+    <t>943.00</t>
+  </si>
+  <si>
+    <t>107.03</t>
+  </si>
+  <si>
+    <t>265.50</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>2490.46</t>
+  </si>
+  <si>
+    <t>264408.40</t>
+  </si>
+  <si>
+    <t>134400.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1994.40</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>10588.50</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>12300.00</t>
+  </si>
+  <si>
+    <t>2272.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>1349.02</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>404.71</t>
+  </si>
+  <si>
+    <t>2415.00</t>
+  </si>
+  <si>
+    <t>1359.20</t>
+  </si>
+  <si>
+    <t>287.78</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>1408.00</t>
+  </si>
+  <si>
+    <t>8607.00</t>
+  </si>
+  <si>
+    <t>1090.00</t>
+  </si>
+  <si>
+    <t>233.60</t>
+  </si>
+  <si>
+    <t>1612.50</t>
+  </si>
+  <si>
+    <t>1900.96</t>
+  </si>
+  <si>
+    <t>6079.11</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>6478.32</t>
+  </si>
+  <si>
+    <t>652.00</t>
+  </si>
+  <si>
+    <t>1735.80</t>
+  </si>
+  <si>
+    <t>2260.00</t>
+  </si>
+  <si>
+    <t>1476.64</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>1069.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>4270.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>98.55</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>807.40</t>
+  </si>
+  <si>
+    <t>2140.00</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>447.00</t>
+  </si>
+  <si>
+    <t>615.00</t>
+  </si>
+  <si>
+    <t>325.50</t>
+  </si>
+  <si>
+    <t>646.00</t>
+  </si>
+  <si>
+    <t>29760.52</t>
+  </si>
+  <si>
+    <t>8217.00</t>
+  </si>
+  <si>
+    <t>5784.20</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>790.30</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>987.00</t>
+  </si>
+  <si>
+    <t>2575.69</t>
+  </si>
+  <si>
+    <t>2733.41</t>
+  </si>
+  <si>
+    <t>9082.74</t>
+  </si>
+  <si>
+    <t>17920.00</t>
+  </si>
+  <si>
+    <t>4565.00</t>
+  </si>
+  <si>
+    <t>1373824.51</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>1010.00</t>
+  </si>
+  <si>
+    <t>1815.80</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>237000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>2632557.15</t>
+  </si>
+  <si>
+    <t>25885.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>1213333.47</t>
+  </si>
+  <si>
+    <t>505587.46</t>
+  </si>
+  <si>
+    <t>23625.76</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>77700.00</t>
+  </si>
+  <si>
+    <t>16470.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
   </si>
 </sst>
 </file>
